--- a/farmer_sheet.xlsx
+++ b/farmer_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
   <si>
     <t xml:space="preserve">mobile_number</t>
   </si>
@@ -61,12 +61,6 @@
     <t xml:space="preserve">January</t>
   </si>
   <si>
-    <t xml:space="preserve">December</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
     <t xml:space="preserve">seeds</t>
   </si>
   <si>
@@ -76,16 +70,46 @@
     <t xml:space="preserve">paddy</t>
   </si>
   <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugarcane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">septemper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novemeber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octomber</t>
+  </si>
+  <si>
     <t xml:space="preserve">dharani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugarcane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February</t>
   </si>
 </sst>
 </file>
@@ -232,18 +256,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -278,7 +302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>7299859147</v>
       </c>
@@ -295,7 +319,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>9</v>
@@ -304,16 +328,16 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>8928282828</v>
       </c>
@@ -321,16 +345,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>4</v>
@@ -339,16 +363,16 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>1811919198</v>
       </c>
@@ -356,16 +380,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1</v>
@@ -373,14 +397,14 @@
       <c r="H4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,31 +415,836 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>1828373732</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>1828313733</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>1828173733</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>1828173433</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>1820173733</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>1821173733</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>1828173733</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>1821173733</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>1822173733</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>1241231312</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>34345435345</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>345345345</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>45345345</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>345345345</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>34534534524</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>234234234</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>345345354</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>27658678</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>1232356547</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>4534645756</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>23234543543</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>234234234</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>1243123123</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
